--- a/Dictionaries/DIGGSTestPropertyDefinitions.xlsx
+++ b/Dictionaries/DIGGSTestPropertyDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-schema/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6280817A-C4F1-E74D-9086-E652F9D3D3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1DC2EB-4E0E-ED42-9611-B021ABC486F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="2920" windowWidth="40120" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="666">
   <si>
     <t>Code</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Flame Ionization Detector Test detects total concentrations of organic gases and vapors.  Gases and vapors are ionized in a flame; a current is produced in proportion to the number of carbon atoms present.  Reported result can be in various units of measure, depending upon specific equipment used.</t>
   </si>
   <si>
-    <t>measure of frictional resistance of soil.  Ratio of shear strength to normal stress</t>
-  </si>
-  <si>
     <t>friction_angle_cv</t>
   </si>
   <si>
@@ -597,9 +594,6 @@
   </si>
   <si>
     <t>sleeve friction</t>
-  </si>
-  <si>
-    <t>measure of stress measured on sleeve of cone during penetration</t>
   </si>
   <si>
     <t>soil_suction</t>
@@ -1292,9 +1286,6 @@
     <t>pore_pressure_u1</t>
   </si>
   <si>
-    <t>measured pore pressure from u1 transducer</t>
-  </si>
-  <si>
     <t>pore_pressure_u2</t>
   </si>
   <si>
@@ -1313,12 +1304,6 @@
     <t>pore water pressure (u3)</t>
   </si>
   <si>
-    <t>measured pore pressure from u2 transducer</t>
-  </si>
-  <si>
-    <t>measured pore pressure from u3 transducer</t>
-  </si>
-  <si>
     <t>Measured inclination angle (vertical = 0 degrees); bearing unspecified or specified as another property</t>
   </si>
   <si>
@@ -1532,15 +1517,6 @@
     <t>angular velocity</t>
   </si>
   <si>
-    <t>API gamma ray</t>
-  </si>
-  <si>
-    <t>API gravity</t>
-  </si>
-  <si>
-    <t>API neutron</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
@@ -2031,6 +2007,39 @@
   </si>
   <si>
     <t>reciprocal time (per time)</t>
+  </si>
+  <si>
+    <t>Value of stress measured on sleeve of cone during penetration</t>
+  </si>
+  <si>
+    <t>Measured pore pressure from u1 transducer</t>
+  </si>
+  <si>
+    <t>Measured pore pressure from u2 transducer</t>
+  </si>
+  <si>
+    <t>Measured pore pressure from u3 transducer</t>
+  </si>
+  <si>
+    <t>Measure of frictional resistance of soil.  Ratio of shear strength to normal stress</t>
+  </si>
+  <si>
+    <t>pressure per pressure</t>
+  </si>
+  <si>
+    <t>api gamma ray</t>
+  </si>
+  <si>
+    <t>api neutron</t>
+  </si>
+  <si>
+    <t>non_plastic</t>
+  </si>
+  <si>
+    <t>non plastic</t>
+  </si>
+  <si>
+    <t>A value of true for this property indiates that no plastic limit can be . In such cases the value of the plastic limit should be left empty or set to the null value, and the value of non_plastic set to true.</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2217,6 +2226,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2414,10 +2432,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H137" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H137" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H137">
-    <sortCondition ref="D1:D137"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H138" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:H138" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H138">
+    <sortCondition ref="D1:D138"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
@@ -2443,7 +2461,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Code" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Element" dataDxfId="0"/>
@@ -2453,10 +2471,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F153DBCC-DE2E-4E4D-A41E-FDE16771171D}" name="Table6" displayName="Table6" ref="A1:C178" totalsRowShown="0">
-  <autoFilter ref="A1:C178" xr:uid="{F153DBCC-DE2E-4E4D-A41E-FDE16771171D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C178">
-    <sortCondition ref="C1:C178"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F153DBCC-DE2E-4E4D-A41E-FDE16771171D}" name="Table6" displayName="Table6" ref="A1:C179" totalsRowShown="0">
+  <autoFilter ref="A1:C179" xr:uid="{F153DBCC-DE2E-4E4D-A41E-FDE16771171D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C179">
+    <sortCondition ref="C1:C179"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{176F4324-F73A-CF4A-B595-13209C384DA6}" name="Start"/>
@@ -2747,13 +2765,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -2761,13 +2779,13 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2782,10 +2800,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2802,28 +2820,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2832,16 +2850,16 @@
         <v/>
       </c>
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -2856,22 +2874,22 @@
         <v/>
       </c>
       <c r="B3" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2880,22 +2898,22 @@
         <v/>
       </c>
       <c r="B4" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2904,22 +2922,22 @@
         <v/>
       </c>
       <c r="B5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2928,22 +2946,22 @@
         <v/>
       </c>
       <c r="B6" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2952,22 +2970,22 @@
         <v/>
       </c>
       <c r="B7" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2976,13 +2994,13 @@
         <v/>
       </c>
       <c r="B8" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
@@ -2991,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3000,22 +3018,22 @@
         <v/>
       </c>
       <c r="B9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3024,22 +3042,22 @@
         <v/>
       </c>
       <c r="B10" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3048,22 +3066,22 @@
         <v/>
       </c>
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3072,22 +3090,22 @@
         <v/>
       </c>
       <c r="B12" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3096,22 +3114,22 @@
         <v/>
       </c>
       <c r="B13" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3120,16 +3138,16 @@
         <v/>
       </c>
       <c r="B14" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -3144,22 +3162,22 @@
         <v/>
       </c>
       <c r="B15" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3168,16 +3186,16 @@
         <v/>
       </c>
       <c r="B16" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>4</v>
@@ -3192,16 +3210,16 @@
         <v/>
       </c>
       <c r="B17" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
@@ -3216,16 +3234,16 @@
         <v/>
       </c>
       <c r="B18" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -3240,13 +3258,13 @@
         <v/>
       </c>
       <c r="B19" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
@@ -3255,7 +3273,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3264,7 +3282,7 @@
         <v/>
       </c>
       <c r="B20" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -3279,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3288,7 +3306,7 @@
         <v/>
       </c>
       <c r="B21" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>24</v>
@@ -3303,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3312,7 +3330,7 @@
         <v/>
       </c>
       <c r="B22" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>33</v>
@@ -3327,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3336,7 +3354,7 @@
         <v/>
       </c>
       <c r="B23" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
@@ -3351,7 +3369,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3360,7 +3378,7 @@
         <v/>
       </c>
       <c r="B24" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -3375,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -3384,22 +3402,22 @@
         <v/>
       </c>
       <c r="B25" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3408,22 +3426,22 @@
         <v/>
       </c>
       <c r="B26" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3432,7 +3450,7 @@
         <v/>
       </c>
       <c r="B27" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>39</v>
@@ -3447,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3456,7 +3474,7 @@
         <v/>
       </c>
       <c r="B28" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
@@ -3471,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3480,7 +3498,7 @@
         <v/>
       </c>
       <c r="B29" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
@@ -3495,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -3504,7 +3522,7 @@
         <v/>
       </c>
       <c r="B30" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>45</v>
@@ -3519,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3528,7 +3546,7 @@
         <v/>
       </c>
       <c r="B31" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>48</v>
@@ -3543,7 +3561,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3552,22 +3570,22 @@
         <v/>
       </c>
       <c r="B32" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -3576,7 +3594,7 @@
         <v/>
       </c>
       <c r="B33" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>53</v>
@@ -3588,10 +3606,10 @@
         <v>55</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3600,7 +3618,7 @@
         <v/>
       </c>
       <c r="B34" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>56</v>
@@ -3624,22 +3642,22 @@
         <v/>
       </c>
       <c r="B35" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -3648,22 +3666,22 @@
         <v/>
       </c>
       <c r="B36" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3672,16 +3690,16 @@
         <v/>
       </c>
       <c r="B37" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>4</v>
@@ -3696,22 +3714,22 @@
         <v/>
       </c>
       <c r="B38" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3720,7 +3738,7 @@
         <v/>
       </c>
       <c r="B39" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>59</v>
@@ -3744,7 +3762,7 @@
         <v/>
       </c>
       <c r="B40" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>62</v>
@@ -3768,7 +3786,7 @@
         <v/>
       </c>
       <c r="B41" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>64</v>
@@ -3792,7 +3810,7 @@
         <v/>
       </c>
       <c r="B42" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>66</v>
@@ -3816,13 +3834,13 @@
         <v/>
       </c>
       <c r="B43" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>69</v>
@@ -3831,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3840,7 +3858,7 @@
         <v/>
       </c>
       <c r="B44" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
@@ -3849,13 +3867,13 @@
         <v>18</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3864,13 +3882,13 @@
         <v/>
       </c>
       <c r="B45" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>72</v>
@@ -3879,7 +3897,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3888,22 +3906,22 @@
         <v/>
       </c>
       <c r="B46" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3912,19 +3930,19 @@
         <v/>
       </c>
       <c r="B47" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3933,22 +3951,22 @@
         <v/>
       </c>
       <c r="B48" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -3957,16 +3975,16 @@
         <v/>
       </c>
       <c r="B49" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -3981,13 +3999,13 @@
         <v/>
       </c>
       <c r="B50" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>73</v>
@@ -4005,13 +4023,13 @@
         <v/>
       </c>
       <c r="B51" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>4</v>
@@ -4026,16 +4044,16 @@
         <v/>
       </c>
       <c r="B52" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -4050,13 +4068,13 @@
         <v/>
       </c>
       <c r="B53" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>76</v>
@@ -4065,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4074,16 +4092,16 @@
         <v/>
       </c>
       <c r="B54" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>4</v>
@@ -4098,16 +4116,16 @@
         <v/>
       </c>
       <c r="B55" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>4</v>
@@ -4122,22 +4140,22 @@
         <v/>
       </c>
       <c r="B56" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="E56" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>454</v>
+        <v>661</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4146,22 +4164,22 @@
         <v/>
       </c>
       <c r="B57" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4170,22 +4188,22 @@
         <v/>
       </c>
       <c r="B58" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -4194,22 +4212,22 @@
         <v/>
       </c>
       <c r="B59" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -4218,22 +4236,22 @@
         <v/>
       </c>
       <c r="B60" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4242,22 +4260,22 @@
         <v/>
       </c>
       <c r="B61" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4266,13 +4284,13 @@
         <v/>
       </c>
       <c r="B62" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -4287,22 +4305,22 @@
         <v/>
       </c>
       <c r="B63" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -4311,22 +4329,22 @@
         <v/>
       </c>
       <c r="B64" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4335,22 +4353,22 @@
         <v/>
       </c>
       <c r="B65" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -4359,22 +4377,22 @@
         <v/>
       </c>
       <c r="B66" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -4383,22 +4401,22 @@
         <v/>
       </c>
       <c r="B67" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="F67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -4407,22 +4425,22 @@
         <v/>
       </c>
       <c r="B68" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -4431,22 +4449,22 @@
         <v/>
       </c>
       <c r="B69" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -4455,136 +4473,136 @@
         <v/>
       </c>
       <c r="B70" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>232</v>
+      <c r="A71" s="17" t="str">
+        <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <v>Not used</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>409</v>
+        <v>663</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E71" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="F74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>4</v>
@@ -4595,20 +4613,20 @@
     </row>
     <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>4</v>
@@ -4617,70 +4635,70 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>354</v>
+        <v>121</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>125</v>
+        <v>390</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>289</v>
+        <v>659</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>4</v>
@@ -4691,20 +4709,20 @@
     </row>
     <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>4</v>
@@ -4713,232 +4731,232 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>447</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="F85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F87" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="F88" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>423</v>
+        <v>656</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>4</v>
@@ -4949,20 +4967,20 @@
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="E91" s="4" t="s">
-        <v>424</v>
+        <v>657</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -4971,22 +4989,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C92,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C92,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>147</v>
+        <v>415</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>148</v>
+        <v>658</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>4</v>
@@ -4995,475 +5013,475 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C93,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C93,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C94,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C94,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C95,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="F95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C96,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C95,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C96,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C97,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C97,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G98" s="4" t="s">
+      <c r="F99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C101,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C102,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C101,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="D102" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E101" s="4" t="s">
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C102,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="D103" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E102" s="4" t="s">
+      <c r="F103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="D104" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103" s="4" t="s">
+      <c r="F104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="F106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="D107" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="F107" s="3" t="s">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>449</v>
+        <v>178</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>452</v>
+        <v>179</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C110" s="3" t="s">
+    <row r="111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="F111" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>190</v>
+        <v>655</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>4</v>
@@ -5474,284 +5492,284 @@
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>399</v>
+        <v>187</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>285</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>192</v>
+        <v>397</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="F116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="F117" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>471</v>
-      </c>
       <c r="F118" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="E119" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>206</v>
+        <v>437</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>320</v>
+        <v>437</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D121" s="4" t="s">
+    </row>
+    <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" s="3" t="s">
+    </row>
+    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C124,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E122" s="4" t="s">
+      <c r="D124" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C124,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="E124" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>4</v>
@@ -5760,22 +5778,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C125,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C125,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>469</v>
+        <v>365</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>469</v>
+        <v>312</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>4</v>
@@ -5786,20 +5804,20 @@
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C126,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C126,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>51</v>
+        <v>464</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>341</v>
+        <v>464</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>52</v>
+        <v>465</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>4</v>
@@ -5808,22 +5826,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C127,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C127,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>451</v>
+        <v>52</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>4</v>
@@ -5832,196 +5850,196 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C128,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C128,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C129,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C129,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C130,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C130,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D130" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C131,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E131" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C131,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="F131" s="3" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>458</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C132,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C132,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G132" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C133,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C133,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C133" s="3" t="s">
+    <row r="134" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C134,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C134,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="F134" s="3" t="s">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C135,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C135,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>430</v>
+        <v>109</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>286</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6030,51 +6048,75 @@
         <v/>
       </c>
       <c r="B136" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C137,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C137,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>223</v>
+        <v>426</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G137" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C138,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" s="4" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G123">
-    <sortCondition ref="A5:A123"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G124">
+    <sortCondition ref="A5:A124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6088,13 +6130,13 @@
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$33</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F137</xm:sqref>
+          <xm:sqref>F2:F138</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29AE475E-1EB2-1A4F-8DC4-4D626678EDB9}">
           <x14:formula1>
-            <xm:f>Lists!$C$2:$C$178</xm:f>
+            <xm:f>Lists!$C$2:$C$179</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G137</xm:sqref>
+          <xm:sqref>G2:G138</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6108,8 +6150,8 @@
   <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B5"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6121,2317 +6163,2317 @@
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B36" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B37" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B40" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B41" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B42" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B44" t="s">
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B45" t="s">
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C50" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C51" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B67" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B70" t="s">
         <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B71" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B72" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B73" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C85" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B86" t="s">
         <v>51</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B90" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B92" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B93" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C93" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B103" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B104" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C105" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B106" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B107" t="s">
         <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B108" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C108" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B110,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C110" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B111" t="s">
         <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B112" t="s">
         <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B113" t="s">
         <v>33</v>
       </c>
       <c r="C113" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B114" t="s">
         <v>39</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B115" t="s">
         <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B116" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C116" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B117" t="s">
         <v>62</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B118" t="s">
         <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B119" t="s">
         <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B122,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B124" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B125" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C126" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B128" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B129" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B130" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B132" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B133" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B134" t="s">
         <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B135" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C135" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B137" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B138" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B142" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B144" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C144" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B145" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C145" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B146" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C146" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B154" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C154" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B155" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C155" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B156" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C156" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B157" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C157" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C158" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C159" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
-        <f>IF(ISNA(VLOOKUP(B160,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B160,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C160" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
-        <f>IF(ISNA(VLOOKUP(B161,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B161,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C161" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f>IF(ISNA(VLOOKUP(B162,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B162,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B162" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C162" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f>IF(ISNA(VLOOKUP(B163,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B163,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C163" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f>IF(ISNA(VLOOKUP(B164,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B164,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C164" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f>IF(ISNA(VLOOKUP(B165,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B165,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C165" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f>IF(ISNA(VLOOKUP(B166,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B166,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f>IF(ISNA(VLOOKUP(B167,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B167,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B167" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f>IF(ISNA(VLOOKUP(B168,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B168,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B168" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f>IF(ISNA(VLOOKUP(B169,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B169,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f>IF(ISNA(VLOOKUP(B170,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B170,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B170" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f>IF(ISNA(VLOOKUP(B171,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B171,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B171" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f>IF(ISNA(VLOOKUP(B172,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B172,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B172" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f>IF(ISNA(VLOOKUP(B173,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B173,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B173" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f>IF(ISNA(VLOOKUP(B174,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B174,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B174" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f>IF(ISNA(VLOOKUP(B175,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B175,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B175" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f>IF(ISNA(VLOOKUP(B176,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B176,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B176" t="s">
         <v>51</v>
       </c>
       <c r="C176" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f>IF(ISNA(VLOOKUP(B177,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B177,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B177" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C177" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f>IF(ISNA(VLOOKUP(B178,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B178,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f>IF(ISNA(VLOOKUP(B179,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B179,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f>IF(ISNA(VLOOKUP(B180,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B180,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B180" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f>IF(ISNA(VLOOKUP(B181,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B181,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B181" t="s">
         <v>48</v>
       </c>
       <c r="C181" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f>IF(ISNA(VLOOKUP(B182,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B182,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B182" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C182" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f>IF(ISNA(VLOOKUP(B183,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B183,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B183" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f>IF(ISNA(VLOOKUP(B184,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B184,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B184" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C184" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f>IF(ISNA(VLOOKUP(B185,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B185,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B185" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C185" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f>IF(ISNA(VLOOKUP(B186,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B186,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B186" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C186" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f>IF(ISNA(VLOOKUP(B187,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B187,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B187" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f>IF(ISNA(VLOOKUP(B188,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B188,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B188" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f>IF(ISNA(VLOOKUP(B189,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B189,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f>IF(ISNA(VLOOKUP(B190,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B190,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f>IF(ISNA(VLOOKUP(B191,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B191,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B191" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f>IF(ISNA(VLOOKUP(B192,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B192,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f>IF(ISNA(VLOOKUP(B193,Definitions!C$2:C$2008,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B193,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B193" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8449,10 +8491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED1C831-4B35-E645-92D4-6FA6FA429868}">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8463,69 +8505,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -8533,424 +8575,424 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C12" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C13" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C15" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C16" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C17" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C18" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C19" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C20" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C21" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C22" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C23" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C24" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C25" t="s">
-        <v>496</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C26" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C29" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C30" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C31" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C32" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C33" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
@@ -8960,242 +9002,242 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
@@ -9205,257 +9247,262 @@
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>661</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>601</v>
+        <v>653</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>662</v>
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>602</v>
+        <v>654</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>457</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>617</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>298</v>
+        <v>619</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>628</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>629</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F176">
-    <sortCondition ref="F2:F176"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F177">
+    <sortCondition ref="F2:F177"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Dictionaries/DIGGSTestPropertyDefinitions.xlsx
+++ b/Dictionaries/DIGGSTestPropertyDefinitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-schema/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1DC2EB-4E0E-ED42-9611-B021ABC486F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE3494-2BDE-7643-A327-575693DAE29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="666">
   <si>
     <t>Code</t>
   </si>
@@ -2191,7 +2191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2236,6 +2236,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2439,7 +2441,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Dictionary ID" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Code" dataDxfId="9"/>
@@ -2454,10 +2456,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:C193" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C193" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C193">
-    <sortCondition ref="C1:C193"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:C194" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C194" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C194">
+    <sortCondition ref="C1:C194"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
@@ -2802,7 +2804,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -2846,7 +2848,7 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="3" t="s">
@@ -2870,7 +2872,7 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="3" t="s">
@@ -2894,7 +2896,7 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3021,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="3" t="s">
@@ -2918,7 +2920,7 @@
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3021,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3022,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="3" t="s">
@@ -2942,7 +2944,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3022,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3023,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="3" t="s">
@@ -2966,7 +2968,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3023,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="3" t="s">
@@ -2990,7 +2992,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C8,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C8,AssociatedElements!B$2:B3025,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="3" t="s">
@@ -3014,7 +3016,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C9,AssociatedElements!B$2:B3025,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C9,AssociatedElements!B$2:B3026,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="3" t="s">
@@ -3038,7 +3040,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3026,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3027,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="3" t="s">
@@ -3062,7 +3064,7 @@
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3027,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3028,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="3" t="s">
@@ -3086,7 +3088,7 @@
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3028,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3029,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="3" t="s">
@@ -3110,7 +3112,7 @@
     </row>
     <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="3" t="s">
@@ -3134,7 +3136,7 @@
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3029,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="3" t="s">
@@ -3158,7 +3160,7 @@
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="3" t="s">
@@ -3182,7 +3184,7 @@
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C16,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C16,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="3" t="s">
@@ -3206,7 +3208,7 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C17,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C17,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="3" t="s">
@@ -3230,7 +3232,7 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="3" t="s">
@@ -3254,7 +3256,7 @@
     </row>
     <row r="19" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C19,AssociatedElements!B$2:B3033,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C19,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="3" t="s">
@@ -3278,7 +3280,7 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C20,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C20,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="3" t="s">
@@ -3302,7 +3304,7 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C21,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C21,AssociatedElements!B$2:B3036,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="3" t="s">
@@ -3326,7 +3328,7 @@
     </row>
     <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C22,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C22,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="3" t="s">
@@ -3350,7 +3352,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C23,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C23,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="3" t="s">
@@ -3374,7 +3376,7 @@
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C24,AssociatedElements!B$2:B3036,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C24,AssociatedElements!B$2:B3037,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="3" t="s">
@@ -3398,7 +3400,7 @@
     </row>
     <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="3" t="s">
@@ -3422,7 +3424,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="3" t="s">
@@ -3446,7 +3448,7 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="3" t="s">
@@ -3470,7 +3472,7 @@
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3037,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="3" t="s">
@@ -3494,7 +3496,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="3" t="s">
@@ -3518,7 +3520,7 @@
     </row>
     <row r="30" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C30,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C30,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="3" t="s">
@@ -3542,7 +3544,7 @@
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C31,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C31,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="3" t="s">
@@ -3566,7 +3568,7 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C32,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C32,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="3" t="s">
@@ -3590,7 +3592,7 @@
     </row>
     <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C33,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C33,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="3" t="s">
@@ -3614,7 +3616,7 @@
     </row>
     <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C34,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C34,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="3" t="s">
@@ -3638,7 +3640,7 @@
     </row>
     <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C35,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C35,AssociatedElements!B$2:B3033,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="3" t="s">
@@ -3662,7 +3664,7 @@
     </row>
     <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C36,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C36,AssociatedElements!B$2:B3033,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="3" t="s">
@@ -3686,7 +3688,7 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="3" t="s">
@@ -3710,7 +3712,7 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C38,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C38,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="3" t="s">
@@ -3734,7 +3736,7 @@
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C39,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C39,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="3" t="s">
@@ -3758,7 +3760,7 @@
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C40,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C40,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="3" t="s">
@@ -3782,7 +3784,7 @@
     </row>
     <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C41,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C41,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="3" t="s">
@@ -3806,7 +3808,7 @@
     </row>
     <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C42,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C42,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="3" t="s">
@@ -3830,7 +3832,7 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C43,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C43,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="3" t="s">
@@ -3854,7 +3856,7 @@
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C44,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C44,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="3" t="s">
@@ -3878,7 +3880,7 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C45,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C45,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="3" t="s">
@@ -3902,7 +3904,7 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C46,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C46,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="3" t="s">
@@ -3926,7 +3928,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C47,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C47,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="3" t="s">
@@ -3947,7 +3949,7 @@
     </row>
     <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C48,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C48,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="3" t="s">
@@ -3971,7 +3973,7 @@
     </row>
     <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C49,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C49,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="3" t="s">
@@ -3995,7 +3997,7 @@
     </row>
     <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C50,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C50,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="3" t="s">
@@ -4019,7 +4021,7 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C51,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C51,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="3" t="s">
@@ -4040,7 +4042,7 @@
     </row>
     <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C52,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C52,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="3" t="s">
@@ -4064,7 +4066,7 @@
     </row>
     <row r="53" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C53,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C53,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="3" t="s">
@@ -4088,7 +4090,7 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C54,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C54,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="3" t="s">
@@ -4112,7 +4114,7 @@
     </row>
     <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C55,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C55,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="3" t="s">
@@ -4136,7 +4138,7 @@
     </row>
     <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C56,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C56,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="3" t="s">
@@ -4160,7 +4162,7 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C57,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C57,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="3" t="s">
@@ -4184,7 +4186,7 @@
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C58,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C58,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="3" t="s">
@@ -4208,7 +4210,7 @@
     </row>
     <row r="59" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C59,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C59,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="3" t="s">
@@ -4232,7 +4234,7 @@
     </row>
     <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C60,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C60,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="3" t="s">
@@ -4256,7 +4258,7 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C61,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C61,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="3" t="s">
@@ -4280,7 +4282,7 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C62,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C62,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="3" t="s">
@@ -4301,7 +4303,7 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C63,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C63,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="3" t="s">
@@ -4325,7 +4327,7 @@
     </row>
     <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C64,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C64,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="3" t="s">
@@ -4349,7 +4351,7 @@
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C65,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C65,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="3" t="s">
@@ -4373,7 +4375,7 @@
     </row>
     <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C66,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C66,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="3" t="s">
@@ -4397,7 +4399,7 @@
     </row>
     <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C67,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C67,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="3" t="s">
@@ -4421,7 +4423,7 @@
     </row>
     <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C68,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C68,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="3" t="s">
@@ -4445,7 +4447,7 @@
     </row>
     <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C69,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C69,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="3" t="s">
@@ -4469,7 +4471,7 @@
     </row>
     <row r="70" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C70,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C70,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="3" t="s">
@@ -4493,8 +4495,8 @@
     </row>
     <row r="71" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="str">
-        <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
+        <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <v/>
       </c>
       <c r="B71" s="18" t="s">
         <v>230</v>
@@ -4517,7 +4519,7 @@
     </row>
     <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="3" t="s">
@@ -4541,7 +4543,7 @@
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="3" t="s">
@@ -4565,7 +4567,7 @@
     </row>
     <row r="74" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="3" t="s">
@@ -4589,7 +4591,7 @@
     </row>
     <row r="75" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="3" t="s">
@@ -4613,7 +4615,7 @@
     </row>
     <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="3" t="s">
@@ -4637,7 +4639,7 @@
     </row>
     <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="3" t="s">
@@ -4661,7 +4663,7 @@
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="3" t="s">
@@ -4685,7 +4687,7 @@
     </row>
     <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="3" t="s">
@@ -4709,7 +4711,7 @@
     </row>
     <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="3" t="s">
@@ -4733,7 +4735,7 @@
     </row>
     <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="3" t="s">
@@ -4757,7 +4759,7 @@
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="3" t="s">
@@ -4781,7 +4783,7 @@
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="3" t="s">
@@ -4805,7 +4807,7 @@
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="3" t="s">
@@ -4823,7 +4825,7 @@
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="3" t="s">
@@ -4847,7 +4849,7 @@
     </row>
     <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="3" t="s">
@@ -4871,7 +4873,7 @@
     </row>
     <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="3" t="s">
@@ -4895,7 +4897,7 @@
     </row>
     <row r="88" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="3" t="s">
@@ -4919,7 +4921,7 @@
     </row>
     <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="3" t="s">
@@ -4943,7 +4945,7 @@
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="3" t="s">
@@ -4967,7 +4969,7 @@
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="3" t="s">
@@ -4991,7 +4993,7 @@
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C92,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C92,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="3" t="s">
@@ -5015,7 +5017,7 @@
     </row>
     <row r="93" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C93,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C93,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="3" t="s">
@@ -5039,7 +5041,7 @@
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C94,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C94,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="3" t="s">
@@ -5063,7 +5065,7 @@
     </row>
     <row r="95" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C95,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C95,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="3" t="s">
@@ -5087,7 +5089,7 @@
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C96,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C96,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="3" t="s">
@@ -5108,7 +5110,7 @@
     </row>
     <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C97,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C97,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="3" t="s">
@@ -5132,7 +5134,7 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="3" t="s">
@@ -5156,7 +5158,7 @@
     </row>
     <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="3" t="s">
@@ -5180,7 +5182,7 @@
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="3" t="s">
@@ -5204,7 +5206,7 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C101,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C101,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="3" t="s">
@@ -5228,7 +5230,7 @@
     </row>
     <row r="102" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C102,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C102,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="3" t="s">
@@ -5252,7 +5254,7 @@
     </row>
     <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="3" t="s">
@@ -5276,7 +5278,7 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="3" t="s">
@@ -5300,7 +5302,7 @@
     </row>
     <row r="105" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="3" t="s">
@@ -5324,7 +5326,7 @@
     </row>
     <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="3" t="s">
@@ -5348,7 +5350,7 @@
     </row>
     <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="3" t="s">
@@ -5372,7 +5374,7 @@
     </row>
     <row r="108" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="3" t="s">
@@ -5396,7 +5398,7 @@
     </row>
     <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="3" t="s">
@@ -5420,7 +5422,7 @@
     </row>
     <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="3" t="s">
@@ -5444,7 +5446,7 @@
     </row>
     <row r="111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="3" t="s">
@@ -5468,7 +5470,7 @@
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="3" t="s">
@@ -5492,7 +5494,7 @@
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="3" t="s">
@@ -5516,7 +5518,7 @@
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="3" t="s">
@@ -5540,7 +5542,7 @@
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="3" t="s">
@@ -5564,7 +5566,7 @@
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="3" t="s">
@@ -5588,7 +5590,7 @@
     </row>
     <row r="117" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="3" t="s">
@@ -5612,7 +5614,7 @@
     </row>
     <row r="118" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="3" t="s">
@@ -5636,7 +5638,7 @@
     </row>
     <row r="119" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="3" t="s">
@@ -5660,7 +5662,7 @@
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="3" t="s">
@@ -5684,7 +5686,7 @@
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="3" t="s">
@@ -5708,7 +5710,7 @@
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="3" t="s">
@@ -5732,7 +5734,7 @@
     </row>
     <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="3" t="s">
@@ -5756,7 +5758,7 @@
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C124,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C124,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="3" t="s">
@@ -5780,7 +5782,7 @@
     </row>
     <row r="125" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C125,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C125,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="3" t="s">
@@ -5804,7 +5806,7 @@
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C126,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C126,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="3" t="s">
@@ -5828,7 +5830,7 @@
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C127,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C127,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="3" t="s">
@@ -5852,7 +5854,7 @@
     </row>
     <row r="128" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C128,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C128,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="3" t="s">
@@ -5876,7 +5878,7 @@
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C129,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C129,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="3" t="s">
@@ -5900,7 +5902,7 @@
     </row>
     <row r="130" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C130,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C130,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="3" t="s">
@@ -5924,7 +5926,7 @@
     </row>
     <row r="131" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C131,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C131,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="3" t="s">
@@ -5948,7 +5950,7 @@
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C132,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C132,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="3" t="s">
@@ -5972,7 +5974,7 @@
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C133,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C133,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="3" t="s">
@@ -5996,7 +5998,7 @@
     </row>
     <row r="134" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C134,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C134,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="3" t="s">
@@ -6020,7 +6022,7 @@
     </row>
     <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C135,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C135,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="3" t="s">
@@ -6044,7 +6046,7 @@
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C136,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C136,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="3" t="s">
@@ -6068,7 +6070,7 @@
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C137,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C137,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="3" t="s">
@@ -6092,7 +6094,7 @@
     </row>
     <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(C138,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C138,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="3" t="s">
@@ -6147,11 +6149,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6329,12 +6331,12 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
+      <c r="A15" s="20" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B15" t="s">
-        <v>136</v>
+      <c r="B15" s="21" t="s">
+        <v>663</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>241</v>
@@ -6345,8 +6347,8 @@
         <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>139</v>
+      <c r="B16" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>241</v>
@@ -6357,8 +6359,8 @@
         <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B17" t="s">
-        <v>175</v>
+      <c r="B17" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>241</v>
@@ -6370,7 +6372,7 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>241</v>
@@ -6382,7 +6384,7 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>241</v>
@@ -6394,7 +6396,7 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>241</v>
@@ -6406,10 +6408,10 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>242</v>
+        <v>217</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6418,10 +6420,10 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6430,7 +6432,7 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>243</v>
@@ -6442,7 +6444,7 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
@@ -6454,7 +6456,7 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>243</v>
@@ -6466,7 +6468,7 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
         <v>243</v>
@@ -6478,7 +6480,7 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
         <v>243</v>
@@ -6490,10 +6492,10 @@
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6502,9 +6504,9 @@
         <v/>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6514,7 +6516,7 @@
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>244</v>
@@ -6526,10 +6528,10 @@
         <v/>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
-      </c>
-      <c r="C31" t="s">
-        <v>245</v>
+        <v>212</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6538,9 +6540,9 @@
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6550,9 +6552,9 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6562,7 +6564,7 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>245</v>
@@ -6574,9 +6576,9 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
-      </c>
-      <c r="C35" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6585,11 +6587,11 @@
         <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>246</v>
+      <c r="B36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6598,7 +6600,7 @@
         <v/>
       </c>
       <c r="B37" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
         <v>246</v>
@@ -6609,8 +6611,8 @@
         <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B38" t="s">
-        <v>151</v>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C38" t="s">
         <v>246</v>
@@ -6621,11 +6623,11 @@
         <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>75</v>
+      <c r="B39" t="s">
+        <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -6634,10 +6636,10 @@
         <v/>
       </c>
       <c r="B40" s="5" t="s">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -6646,7 +6648,7 @@
         <v/>
       </c>
       <c r="B41" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s">
         <v>297</v>
@@ -6658,7 +6660,7 @@
         <v/>
       </c>
       <c r="B42" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C42" t="s">
         <v>297</v>
@@ -6669,8 +6671,8 @@
         <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B43" t="s">
-        <v>27</v>
+      <c r="B43" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="C43" t="s">
         <v>297</v>
@@ -6682,7 +6684,7 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>297</v>
@@ -6694,7 +6696,7 @@
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>297</v>
@@ -6706,7 +6708,7 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>297</v>
@@ -6718,7 +6720,7 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C47" t="s">
         <v>297</v>
@@ -6730,7 +6732,7 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="C48" t="s">
         <v>297</v>
@@ -6742,7 +6744,7 @@
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C49" t="s">
         <v>297</v>
@@ -6754,7 +6756,7 @@
         <v/>
       </c>
       <c r="B50" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C50" t="s">
         <v>297</v>
@@ -6766,7 +6768,7 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="C51" t="s">
         <v>297</v>
@@ -6778,7 +6780,7 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C52" t="s">
         <v>297</v>
@@ -6790,7 +6792,7 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
         <v>297</v>
@@ -6802,7 +6804,7 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
         <v>297</v>
@@ -6814,7 +6816,7 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
         <v>297</v>
@@ -6826,7 +6828,7 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
         <v>297</v>
@@ -6838,7 +6840,7 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
         <v>297</v>
@@ -6850,7 +6852,7 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C58" t="s">
         <v>297</v>
@@ -6862,9 +6864,9 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>311</v>
-      </c>
-      <c r="C59" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C59" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6874,7 +6876,7 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>297</v>
@@ -6886,9 +6888,9 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>307</v>
-      </c>
-      <c r="C61" t="s">
+        <v>355</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6898,9 +6900,9 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
-      </c>
-      <c r="C62" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6910,7 +6912,7 @@
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>297</v>
@@ -6922,7 +6924,7 @@
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>297</v>
@@ -6934,10 +6936,10 @@
         <v/>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -6946,10 +6948,10 @@
         <v/>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>249</v>
+        <v>82</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -6958,7 +6960,7 @@
         <v/>
       </c>
       <c r="B67" t="s">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
         <v>249</v>
@@ -6970,7 +6972,7 @@
         <v/>
       </c>
       <c r="B68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
         <v>249</v>
@@ -6982,7 +6984,7 @@
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="C69" t="s">
         <v>249</v>
@@ -6994,10 +6996,10 @@
         <v/>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -7005,11 +7007,11 @@
         <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>341</v>
+      <c r="B71" t="s">
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -7018,7 +7020,7 @@
         <v/>
       </c>
       <c r="B72" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C72" t="s">
         <v>251</v>
@@ -7030,7 +7032,7 @@
         <v/>
       </c>
       <c r="B73" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
         <v>251</v>
@@ -7041,11 +7043,11 @@
         <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>252</v>
+      <c r="B74" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -7054,9 +7056,9 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7066,10 +7068,10 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>253</v>
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -7078,7 +7080,7 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>253</v>
@@ -7090,7 +7092,7 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>253</v>
@@ -7102,10 +7104,10 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -7114,7 +7116,7 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>254</v>
@@ -7126,7 +7128,7 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>254</v>
@@ -7138,7 +7140,7 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>254</v>
@@ -7150,10 +7152,10 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>362</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -7162,10 +7164,10 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
-      </c>
-      <c r="C84" t="s">
-        <v>256</v>
+        <v>133</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -7174,7 +7176,7 @@
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C85" t="s">
         <v>256</v>
@@ -7186,10 +7188,10 @@
         <v/>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>257</v>
+        <v>363</v>
+      </c>
+      <c r="C86" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -7198,9 +7200,9 @@
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
-      </c>
-      <c r="C87" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7210,7 +7212,7 @@
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>257</v>
@@ -7222,7 +7224,7 @@
         <v/>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>257</v>
@@ -7233,11 +7235,11 @@
         <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C90" t="s">
-        <v>258</v>
+      <c r="B90" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -7245,8 +7247,8 @@
         <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B91" t="s">
-        <v>344</v>
+      <c r="B91" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="C91" t="s">
         <v>258</v>
@@ -7257,8 +7259,8 @@
         <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>342</v>
+      <c r="B92" t="s">
+        <v>344</v>
       </c>
       <c r="C92" t="s">
         <v>258</v>
@@ -7270,7 +7272,7 @@
         <v/>
       </c>
       <c r="B93" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C93" t="s">
         <v>258</v>
@@ -7281,11 +7283,11 @@
         <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B94" t="s">
-        <v>150</v>
+      <c r="B94" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -7294,10 +7296,10 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -7306,10 +7308,10 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>161</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>340</v>
+        <v>225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -7318,7 +7320,7 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>340</v>
@@ -7330,7 +7332,7 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>340</v>
@@ -7342,10 +7344,10 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -7354,7 +7356,7 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>261</v>
@@ -7366,7 +7368,7 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>261</v>
@@ -7377,11 +7379,11 @@
         <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>9</v>
+      <c r="B102" t="s">
+        <v>192</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -7390,7 +7392,7 @@
         <v/>
       </c>
       <c r="B103" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>262</v>
@@ -7402,7 +7404,7 @@
         <v/>
       </c>
       <c r="B104" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>262</v>
@@ -7413,11 +7415,11 @@
         <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B105" t="s">
-        <v>407</v>
-      </c>
-      <c r="C105" t="s">
-        <v>263</v>
+      <c r="B105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -7425,11 +7427,11 @@
         <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>100</v>
+      <c r="B106" t="s">
+        <v>407</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -7437,11 +7439,11 @@
         <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B107" t="s">
-        <v>53</v>
+      <c r="B107" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -7449,8 +7451,8 @@
         <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>68</v>
+      <c r="B108" t="s">
+        <v>53</v>
       </c>
       <c r="C108" t="s">
         <v>265</v>
@@ -7461,8 +7463,8 @@
         <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B109" t="s">
-        <v>95</v>
+      <c r="B109" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C109" t="s">
         <v>265</v>
@@ -7474,7 +7476,7 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>362</v>
+        <v>95</v>
       </c>
       <c r="C110" t="s">
         <v>265</v>
@@ -7486,10 +7488,10 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>362</v>
       </c>
       <c r="C111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -7498,7 +7500,7 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
         <v>266</v>
@@ -7510,7 +7512,7 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
         <v>266</v>
@@ -7522,7 +7524,7 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
         <v>266</v>
@@ -7534,7 +7536,7 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
         <v>266</v>
@@ -7545,8 +7547,8 @@
         <f>IF(ISNA(VLOOKUP(B116,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>59</v>
+      <c r="B116" t="s">
+        <v>42</v>
       </c>
       <c r="C116" t="s">
         <v>266</v>
@@ -7557,8 +7559,8 @@
         <f>IF(ISNA(VLOOKUP(B117,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B117" t="s">
-        <v>62</v>
+      <c r="B117" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C117" t="s">
         <v>266</v>
@@ -7570,7 +7572,7 @@
         <v/>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C118" t="s">
         <v>266</v>
@@ -7582,7 +7584,7 @@
         <v/>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C119" t="s">
         <v>266</v>
@@ -7594,7 +7596,7 @@
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C120" t="s">
         <v>266</v>
@@ -7606,7 +7608,7 @@
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
         <v>266</v>
@@ -7618,7 +7620,7 @@
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
         <v>266</v>
@@ -7630,9 +7632,9 @@
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
-      </c>
-      <c r="C123" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7641,11 +7643,11 @@
         <f>IF(ISNA(VLOOKUP(B124,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>286</v>
+      <c r="B124" t="s">
+        <v>215</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -7653,11 +7655,11 @@
         <f>IF(ISNA(VLOOKUP(B125,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B125" t="s">
-        <v>445</v>
-      </c>
-      <c r="C125" t="s">
-        <v>268</v>
+      <c r="B125" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -7666,7 +7668,7 @@
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C126" t="s">
         <v>268</v>
@@ -7678,10 +7680,10 @@
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>455</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>461</v>
+        <v>444</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -7690,7 +7692,7 @@
         <v/>
       </c>
       <c r="B128" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>461</v>
@@ -7702,7 +7704,7 @@
         <v/>
       </c>
       <c r="B129" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>461</v>
@@ -7714,7 +7716,7 @@
         <v/>
       </c>
       <c r="B130" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>461</v>
@@ -7726,7 +7728,7 @@
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>463</v>
+        <v>370</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>461</v>
@@ -7738,7 +7740,7 @@
         <v/>
       </c>
       <c r="B132" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>461</v>
@@ -7749,8 +7751,8 @@
         <f>IF(ISNA(VLOOKUP(B133,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B133" s="16" t="s">
-        <v>27</v>
+      <c r="B133" t="s">
+        <v>464</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>461</v>
@@ -7761,11 +7763,11 @@
         <f>IF(ISNA(VLOOKUP(B134,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B134" t="s">
-        <v>36</v>
-      </c>
-      <c r="C134" t="s">
-        <v>269</v>
+      <c r="B134" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -7773,8 +7775,8 @@
         <f>IF(ISNA(VLOOKUP(B135,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>70</v>
+      <c r="B135" t="s">
+        <v>36</v>
       </c>
       <c r="C135" t="s">
         <v>269</v>
@@ -7785,8 +7787,8 @@
         <f>IF(ISNA(VLOOKUP(B136,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B136" t="s">
-        <v>77</v>
+      <c r="B136" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C136" t="s">
         <v>269</v>
@@ -7798,7 +7800,7 @@
         <v/>
       </c>
       <c r="B137" t="s">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="C137" t="s">
         <v>269</v>
@@ -7809,8 +7811,8 @@
         <f>IF(ISNA(VLOOKUP(B138,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>87</v>
+      <c r="B138" t="s">
+        <v>359</v>
       </c>
       <c r="C138" t="s">
         <v>269</v>
@@ -7821,8 +7823,8 @@
         <f>IF(ISNA(VLOOKUP(B139,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B139" t="s">
-        <v>88</v>
+      <c r="B139" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C139" t="s">
         <v>269</v>
@@ -7834,9 +7836,9 @@
         <v/>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
-      </c>
-      <c r="C140" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7846,7 +7848,7 @@
         <v/>
       </c>
       <c r="B141" t="s">
-        <v>310</v>
+        <v>163</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>269</v>
@@ -7858,7 +7860,7 @@
         <v/>
       </c>
       <c r="B142" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>269</v>
@@ -7870,7 +7872,7 @@
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>269</v>
@@ -7881,11 +7883,11 @@
         <f>IF(ISNA(VLOOKUP(B144,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C144" t="s">
-        <v>270</v>
+      <c r="B144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -7894,7 +7896,7 @@
         <v/>
       </c>
       <c r="B145" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C145" t="s">
         <v>270</v>
@@ -7906,7 +7908,7 @@
         <v/>
       </c>
       <c r="B146" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C146" t="s">
         <v>270</v>
@@ -7917,11 +7919,11 @@
         <f>IF(ISNA(VLOOKUP(B147,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B147" t="s">
-        <v>151</v>
+      <c r="B147" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="C147" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -7930,10 +7932,10 @@
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>272</v>
+        <v>151</v>
+      </c>
+      <c r="C148" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -7942,10 +7944,10 @@
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -7954,10 +7956,10 @@
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -7966,10 +7968,10 @@
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -7978,7 +7980,7 @@
         <v/>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>275</v>
@@ -7990,7 +7992,7 @@
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>275</v>
@@ -8001,11 +8003,11 @@
         <f>IF(ISNA(VLOOKUP(B154,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C154" t="s">
-        <v>276</v>
+      <c r="B154" t="s">
+        <v>201</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -8014,7 +8016,7 @@
         <v/>
       </c>
       <c r="B155" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C155" t="s">
         <v>276</v>
@@ -8026,7 +8028,7 @@
         <v/>
       </c>
       <c r="B156" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C156" t="s">
         <v>276</v>
@@ -8037,8 +8039,8 @@
         <f>IF(ISNA(VLOOKUP(B157,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B157" t="s">
-        <v>79</v>
+      <c r="B157" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="C157" t="s">
         <v>276</v>
@@ -8050,7 +8052,7 @@
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="C158" t="s">
         <v>276</v>
@@ -8062,7 +8064,7 @@
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>86</v>
+        <v>430</v>
       </c>
       <c r="C159" t="s">
         <v>276</v>
@@ -8074,7 +8076,7 @@
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>421</v>
+        <v>86</v>
       </c>
       <c r="C160" t="s">
         <v>276</v>
@@ -8086,7 +8088,7 @@
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C161" t="s">
         <v>276</v>
@@ -8098,7 +8100,7 @@
         <v/>
       </c>
       <c r="B162" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C162" t="s">
         <v>276</v>
@@ -8110,7 +8112,7 @@
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C163" t="s">
         <v>276</v>
@@ -8122,7 +8124,7 @@
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C164" t="s">
         <v>276</v>
@@ -8134,7 +8136,7 @@
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C165" t="s">
         <v>276</v>
@@ -8146,9 +8148,9 @@
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>184</v>
-      </c>
-      <c r="C166" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C166" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8158,7 +8160,7 @@
         <v/>
       </c>
       <c r="B167" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>276</v>
@@ -8170,7 +8172,7 @@
         <v/>
       </c>
       <c r="B168" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>276</v>
@@ -8182,7 +8184,7 @@
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>276</v>
@@ -8194,10 +8196,10 @@
         <v/>
       </c>
       <c r="B170" t="s">
-        <v>186</v>
+        <v>427</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -8205,11 +8207,11 @@
         <f>IF(ISNA(VLOOKUP(B171,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>352</v>
+      <c r="B171" t="s">
+        <v>186</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -8217,8 +8219,8 @@
         <f>IF(ISNA(VLOOKUP(B172,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B172" t="s">
-        <v>359</v>
+      <c r="B172" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>278</v>
@@ -8230,7 +8232,7 @@
         <v/>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>278</v>
@@ -8242,7 +8244,7 @@
         <v/>
       </c>
       <c r="B174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>278</v>
@@ -8254,7 +8256,7 @@
         <v/>
       </c>
       <c r="B175" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>278</v>
@@ -8266,10 +8268,10 @@
         <v/>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
-      </c>
-      <c r="C176" t="s">
-        <v>279</v>
+        <v>355</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -8278,7 +8280,7 @@
         <v/>
       </c>
       <c r="B177" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="C177" t="s">
         <v>279</v>
@@ -8290,9 +8292,9 @@
         <v/>
       </c>
       <c r="B178" t="s">
-        <v>161</v>
-      </c>
-      <c r="C178" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8302,7 +8304,7 @@
         <v/>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>279</v>
@@ -8314,7 +8316,7 @@
         <v/>
       </c>
       <c r="B180" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>279</v>
@@ -8326,10 +8328,10 @@
         <v/>
       </c>
       <c r="B181" t="s">
-        <v>48</v>
-      </c>
-      <c r="C181" t="s">
-        <v>280</v>
+        <v>220</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -8338,7 +8340,7 @@
         <v/>
       </c>
       <c r="B182" t="s">
-        <v>435</v>
+        <v>48</v>
       </c>
       <c r="C182" t="s">
         <v>280</v>
@@ -8350,9 +8352,9 @@
         <v/>
       </c>
       <c r="B183" t="s">
-        <v>84</v>
-      </c>
-      <c r="C183" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C183" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8362,9 +8364,9 @@
         <v/>
       </c>
       <c r="B184" t="s">
-        <v>114</v>
-      </c>
-      <c r="C184" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" s="8" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8374,7 +8376,7 @@
         <v/>
       </c>
       <c r="B185" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C185" t="s">
         <v>280</v>
@@ -8386,7 +8388,7 @@
         <v/>
       </c>
       <c r="B186" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="C186" t="s">
         <v>280</v>
@@ -8398,9 +8400,9 @@
         <v/>
       </c>
       <c r="B187" t="s">
-        <v>166</v>
-      </c>
-      <c r="C187" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C187" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8410,7 +8412,7 @@
         <v/>
       </c>
       <c r="B188" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>280</v>
@@ -8422,7 +8424,7 @@
         <v/>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>280</v>
@@ -8434,7 +8436,7 @@
         <v/>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>280</v>
@@ -8446,7 +8448,7 @@
         <v/>
       </c>
       <c r="B191" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>280</v>
@@ -8458,7 +8460,7 @@
         <v/>
       </c>
       <c r="B192" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>280</v>
@@ -8470,16 +8472,28 @@
         <v/>
       </c>
       <c r="B193" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>280</v>
       </c>
     </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="str">
+        <f>IF(ISNA(VLOOKUP(B194,Definitions!C$2:C$2009,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B194" t="s">
+        <v>437</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C177">
-    <sortCondition ref="C2:C177"/>
-    <sortCondition ref="A2:A177"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C178">
+    <sortCondition ref="C2:C178"/>
+    <sortCondition ref="A2:A178"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
